--- a/experiments/Car-IBk/Car-IBk.xlsx
+++ b/experiments/Car-IBk/Car-IBk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aydin\Desktop\GaTech\CS7641\Assignments\CS7641Git\CS7641\experiments\Car-IBk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aydin\Desktop\GaTech\CS7641\Assignments\CS7641Public\CS7641\experiments\Car-IBk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -175,6 +175,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Training Data</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -288,6 +291,9 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>Testing data</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -406,11 +412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="412253912"/>
-        <c:axId val="412254304"/>
+        <c:axId val="644670744"/>
+        <c:axId val="644671136"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="412253912"/>
+        <c:axId val="644670744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -467,12 +473,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412254304"/>
+        <c:crossAx val="644671136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="412254304"/>
+        <c:axId val="644671136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -529,7 +535,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="412253912"/>
+        <c:crossAx val="644670744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
